--- a/doc/project/fll schedule.xlsx
+++ b/doc/project/fll schedule.xlsx
@@ -21,13 +21,13 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="136">
   <si>
     <t>Order</t>
   </si>
@@ -331,112 +331,10 @@
     <t>Points</t>
   </si>
   <si>
-    <t>Rapid Blood Screening</t>
-  </si>
-  <si>
-    <t>Syringe in base</t>
-  </si>
-  <si>
-    <t>All three white blood cells in patient's area</t>
-  </si>
-  <si>
-    <t>Number of red blood cells on the field  (0-8)</t>
-  </si>
-  <si>
-    <t>Stent</t>
-  </si>
-  <si>
-    <t>Stent installed/artery expanded</t>
-  </si>
-  <si>
-    <t>Cardiac Patch</t>
-  </si>
-  <si>
-    <t>Patch applied</t>
-  </si>
-  <si>
-    <t>Pace Maker</t>
-  </si>
-  <si>
-    <t>Pace maker tube end in heart, body is out</t>
-  </si>
-  <si>
-    <t>Mechanical Arm Patent</t>
-  </si>
-  <si>
-    <t>Patent is grabbed by your sides hand</t>
-  </si>
-  <si>
-    <t>Bionic Eyes</t>
-  </si>
-  <si>
-    <t>At  Least One Eye Touching Upper Body</t>
-  </si>
-  <si>
-    <t>Medicine Auto-Dispensing</t>
-  </si>
-  <si>
-    <t>Blue and whites off, pink is on</t>
-  </si>
-  <si>
-    <t>Blue and whites in container in patient area</t>
-  </si>
-  <si>
-    <t>Robotic Sensitivity</t>
-  </si>
-  <si>
-    <t>Weight all the way up</t>
-  </si>
-  <si>
-    <t>Object Controlled Through Thought</t>
-  </si>
-  <si>
-    <t>Door open at least half way</t>
-  </si>
-  <si>
-    <t>Nerve Mapping</t>
-  </si>
-  <si>
-    <t>Nerve input/output revealed</t>
-  </si>
-  <si>
-    <t>Professional Teamwork</t>
-  </si>
-  <si>
-    <t>People all together in the patient area</t>
-  </si>
-  <si>
-    <t>Bad Cell Destruction</t>
-  </si>
-  <si>
-    <t>Bad cell identification (some black up, rest face north)</t>
-  </si>
-  <si>
-    <t>Special Bone Repair</t>
-  </si>
-  <si>
-    <t>Bone bridge inserted</t>
-  </si>
-  <si>
-    <t>Only the foot can move/propel the ball</t>
-  </si>
-  <si>
-    <t>Common Bone Repair</t>
-  </si>
-  <si>
-    <t>Total Score</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t xml:space="preserve">Owner </t>
-  </si>
-  <si>
-    <t>Total Time</t>
-  </si>
-  <si>
-    <t>Time Used</t>
   </si>
   <si>
     <t>Kristina</t>
@@ -489,12 +387,6 @@
     <t>Jobs:</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Set (align) Bone and Set Blue Cast</t>
-  </si>
-  <si>
     <t>Research</t>
   </si>
   <si>
@@ -546,61 +438,10 @@
     <t>Presentation</t>
   </si>
   <si>
-    <t>Get person</t>
-  </si>
-  <si>
     <t>Difficulty</t>
   </si>
   <si>
-    <t>in process</t>
-  </si>
-  <si>
-    <t>*or Bad cell destruction (all black tiles face north)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x 5 = </t>
-  </si>
-  <si>
-    <t>MAD</t>
-  </si>
-  <si>
-    <t>w/ 7.1</t>
-  </si>
-  <si>
-    <t>w/ 1.1</t>
-  </si>
-  <si>
-    <t>kpace</t>
-  </si>
-  <si>
-    <t>Syringe</t>
-  </si>
-  <si>
-    <t>open door</t>
-  </si>
-  <si>
-    <t>CB repair</t>
-  </si>
-  <si>
     <t>PossiblePts</t>
-  </si>
-  <si>
-    <t>w/ Mission 5.0</t>
-  </si>
-  <si>
-    <t>w/ Mission 7.0</t>
-  </si>
-  <si>
-    <t>w/ Mission 8.0</t>
-  </si>
-  <si>
-    <t>w/ Mission 3.0&amp;4.0</t>
-  </si>
-  <si>
-    <t>CLAW</t>
-  </si>
-  <si>
-    <t>4sb</t>
   </si>
   <si>
     <t>week</t>
@@ -1716,7 +1557,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="B3:N19" firstHeaderRow="1" firstDataRow="3" firstDataCol="5"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3609,7 +3450,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>63</v>
@@ -3644,13 +3485,13 @@
         <v>41</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F8" s="51" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -3667,7 +3508,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>50</v>
@@ -3731,7 +3572,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="E12" s="52"/>
       <c r="F12" s="26" t="s">
@@ -3751,7 +3592,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
@@ -3771,7 +3612,7 @@
         <v>58</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
@@ -3791,11 +3632,11 @@
         <v>52</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="G15" s="48"/>
     </row>
@@ -3847,7 +3688,7 @@
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="G18" s="48"/>
     </row>
@@ -3920,10 +3761,10 @@
         <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3937,7 +3778,7 @@
         <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3951,7 +3792,7 @@
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -3959,56 +3800,56 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C36" s="25" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C37" s="23" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F37" s="65" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C38" s="23" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="F38" s="65" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C39" s="23" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="65" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C40" s="23" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="65" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C41" s="23" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -4017,18 +3858,18 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C42" s="23" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
       </c>
       <c r="F42" s="65" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C43" s="23" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
         <v>73</v>
@@ -4036,18 +3877,18 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C44" s="23" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="23" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -4055,7 +3896,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -4063,7 +3904,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -4071,7 +3912,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -4079,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -4087,7 +3928,7 @@
         <v>45</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -4095,7 +3936,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -4103,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -4123,11 +3964,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4154,13 +3995,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="E1" s="43" t="s">
         <v>92</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="G1" s="43" t="s">
         <v>19</v>
@@ -4169,202 +4010,93 @@
         <v>0</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="J1" s="43" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="N1" s="43" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="78" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70">
-        <v>5</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="68">
-        <v>25</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="68">
-        <v>10</v>
-      </c>
-      <c r="H2" s="66">
-        <v>1</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="70"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="66"/>
-      <c r="J2" s="66" t="s">
-        <v>181</v>
-      </c>
+      <c r="J2" s="66"/>
       <c r="K2" s="66"/>
-      <c r="L2" s="82" t="s">
-        <v>180</v>
-      </c>
+      <c r="L2" s="82"/>
       <c r="M2" s="66"/>
-      <c r="N2" s="76">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>25</v>
-      </c>
+      <c r="N2" s="76"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="71">
-        <v>6</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="69">
-        <v>20</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="69">
-        <v>10</v>
-      </c>
-      <c r="H3" s="67">
-        <v>13</v>
-      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="67"/>
       <c r="J3" s="67"/>
       <c r="K3" s="67"/>
       <c r="L3" s="67"/>
       <c r="M3" s="67"/>
-      <c r="N3" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3">
-        <f>E3</f>
-        <v>20</v>
-      </c>
+      <c r="N3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="71">
-        <v>2</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="69">
-        <v>25</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="69">
-        <v>10</v>
-      </c>
-      <c r="H4" s="67">
-        <v>2</v>
-      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
-        <v>97</v>
-      </c>
+      <c r="J4" s="67"/>
       <c r="K4" s="67"/>
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
-      <c r="N4" s="86">
-        <v>0.95</v>
-      </c>
-      <c r="O4">
-        <f>E4</f>
-        <v>25</v>
-      </c>
+      <c r="N4" s="86"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="70">
-        <v>13</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="68">
-        <v>15</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="68">
-        <v>10</v>
-      </c>
-      <c r="H5" s="66">
-        <v>7</v>
-      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="66"/>
       <c r="I5" s="66"/>
-      <c r="J5" s="66" t="s">
-        <v>182</v>
-      </c>
+      <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
       <c r="M5" s="66"/>
-      <c r="N5" s="77">
-        <v>0.75</v>
-      </c>
-      <c r="O5">
-        <v>15</v>
-      </c>
+      <c r="N5" s="77"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="70">
-        <v>13.1</v>
-      </c>
+      <c r="B6" s="70"/>
       <c r="C6" s="43"/>
-      <c r="D6" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="68">
-        <v>25</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>73</v>
-      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="68"/>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
@@ -4372,154 +4104,58 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
       <c r="M6" s="66"/>
-      <c r="N6" s="66" t="s">
-        <v>145</v>
-      </c>
+      <c r="N6" s="66"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="70">
-        <v>1</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="68">
-        <v>25</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="68">
-        <v>10</v>
-      </c>
-      <c r="H7" s="68">
-        <v>3</v>
-      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="68"/>
-      <c r="J7" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="K7" s="68" t="s">
-        <v>164</v>
-      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
       <c r="L7" s="68"/>
-      <c r="M7" s="79">
-        <v>40481</v>
-      </c>
-      <c r="N7" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="O7">
-        <f>E7</f>
-        <v>25</v>
-      </c>
+      <c r="M7" s="79"/>
+      <c r="N7" s="68"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="70">
-        <v>3</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="68">
-        <v>20</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="68">
-        <v>10</v>
-      </c>
-      <c r="H8" s="66">
-        <v>5</v>
-      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
       <c r="K8" s="66"/>
-      <c r="L8" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="M8" s="80">
-        <v>40481</v>
-      </c>
-      <c r="N8" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="O8">
-        <f>E8</f>
-        <v>20</v>
-      </c>
+      <c r="L8" s="66"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="66"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="70">
-        <v>4</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="68">
-        <v>25</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="68">
-        <v>10</v>
-      </c>
-      <c r="H9" s="66">
-        <v>6</v>
-      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="66"/>
       <c r="I9" s="66"/>
-      <c r="J9" s="66" t="s">
-        <v>172</v>
-      </c>
+      <c r="J9" s="66"/>
       <c r="K9" s="66"/>
-      <c r="L9" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="M9" s="80">
-        <v>40481</v>
-      </c>
-      <c r="N9" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="O9">
-        <f>E9</f>
-        <v>25</v>
-      </c>
+      <c r="L9" s="66"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="66"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="70">
-        <v>1.2</v>
-      </c>
+      <c r="B10" s="70"/>
       <c r="C10" s="43"/>
-      <c r="D10" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>168</v>
-      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
@@ -4528,341 +4164,148 @@
       <c r="K10" s="68"/>
       <c r="L10" s="68"/>
       <c r="M10" s="68"/>
-      <c r="N10" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="O10">
-        <v>40</v>
-      </c>
+      <c r="N10" s="68"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="71">
-        <v>7</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="69">
-        <v>25</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="69">
-        <v>10</v>
-      </c>
-      <c r="H11" s="67">
-        <v>9</v>
-      </c>
+      <c r="B11" s="71"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="67"/>
-      <c r="J11" s="67" t="s">
-        <v>169</v>
-      </c>
+      <c r="J11" s="67"/>
       <c r="K11" s="67"/>
-      <c r="L11" s="67" t="s">
-        <v>179</v>
-      </c>
+      <c r="L11" s="67"/>
       <c r="M11" s="67"/>
-      <c r="N11" s="67" t="s">
-        <v>166</v>
-      </c>
-      <c r="O11">
-        <v>25</v>
-      </c>
+      <c r="N11" s="67"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" s="70">
-        <v>8</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="68">
-        <v>25</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="68">
-        <v>10</v>
-      </c>
-      <c r="H12" s="66">
-        <v>8</v>
-      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="66"/>
       <c r="I12" s="66"/>
       <c r="J12" s="66"/>
       <c r="K12" s="66"/>
-      <c r="L12" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="M12" s="80">
-        <v>40481</v>
-      </c>
-      <c r="N12" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="O12">
-        <v>25</v>
-      </c>
+      <c r="L12" s="66"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="66"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" s="70">
-        <v>9</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="68">
-        <v>20</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="68">
-        <v>10</v>
-      </c>
-      <c r="H13" s="66">
-        <v>11</v>
-      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="66"/>
       <c r="I13" s="66"/>
-      <c r="J13" s="66" t="s">
-        <v>174</v>
-      </c>
+      <c r="J13" s="66"/>
       <c r="K13" s="66"/>
       <c r="L13" s="66"/>
       <c r="M13" s="66"/>
-      <c r="N13" s="77">
-        <v>0.25</v>
-      </c>
-      <c r="O13">
-        <f>E13</f>
-        <v>20</v>
-      </c>
+      <c r="N13" s="77"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" s="70">
-        <v>10</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="68">
-        <v>15</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="68">
-        <v>10</v>
-      </c>
-      <c r="H14" s="66">
-        <v>10</v>
-      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="66"/>
       <c r="I14" s="66"/>
       <c r="J14" s="66"/>
       <c r="K14" s="66"/>
       <c r="L14" s="66"/>
       <c r="M14" s="66"/>
-      <c r="N14" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="O14">
-        <f>E14</f>
-        <v>15</v>
-      </c>
+      <c r="N14" s="66"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="70">
-        <v>11</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="68">
-        <v>25</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="68">
-        <v>10</v>
-      </c>
-      <c r="H15" s="66">
-        <v>14</v>
-      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="66"/>
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
       <c r="L15" s="66"/>
       <c r="M15" s="66"/>
-      <c r="N15" s="66" t="s">
-        <v>145</v>
-      </c>
+      <c r="N15" s="66"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16" s="70">
-        <v>14</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="68">
-        <v>25</v>
-      </c>
-      <c r="F16" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="68">
-        <v>10</v>
-      </c>
-      <c r="H16" s="66">
-        <v>4</v>
-      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="66"/>
-      <c r="J16" s="66" t="s">
-        <v>175</v>
-      </c>
+      <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="66"/>
       <c r="M16" s="66"/>
-      <c r="N16" s="76">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <f>E16</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="71">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="N16" s="76"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="71"/>
       <c r="C17" s="44"/>
-      <c r="D17" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="69">
-        <v>15</v>
-      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="69"/>
       <c r="G17" s="69"/>
       <c r="H17" s="69"/>
       <c r="I17" s="69"/>
       <c r="J17" s="69"/>
-      <c r="K17" s="69" t="s">
-        <v>170</v>
-      </c>
+      <c r="K17" s="69"/>
       <c r="L17" s="69"/>
       <c r="M17" s="69"/>
-      <c r="N17" s="69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="70">
-        <v>7.1</v>
-      </c>
+      <c r="N17" s="69"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="70"/>
       <c r="C18" s="43"/>
-      <c r="D18" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="68">
-        <v>5</v>
-      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
       <c r="H18" s="66"/>
       <c r="I18" s="66"/>
       <c r="J18" s="66"/>
-      <c r="K18" s="66" t="s">
-        <v>171</v>
-      </c>
+      <c r="K18" s="66"/>
       <c r="L18" s="66"/>
       <c r="M18" s="66"/>
-      <c r="N18" s="66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="71">
-        <v>12</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="69">
-        <v>20</v>
-      </c>
-      <c r="F19" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="69">
-        <v>10</v>
-      </c>
-      <c r="H19" s="67">
-        <v>12</v>
-      </c>
+      <c r="N18" s="66"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="71"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="67"/>
       <c r="J19" s="67"/>
       <c r="K19" s="67"/>
       <c r="L19" s="67"/>
-      <c r="M19" s="85">
-        <v>40481</v>
-      </c>
-      <c r="N19" s="67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="72">
-        <v>12.1</v>
-      </c>
+      <c r="M19" s="85"/>
+      <c r="N19" s="67"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="72"/>
       <c r="C20" s="73"/>
-      <c r="D20" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="74">
-        <v>25</v>
-      </c>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="74"/>
       <c r="G20" s="74"/>
       <c r="H20" s="75"/>
@@ -4871,36 +4314,7 @@
       <c r="K20" s="75"/>
       <c r="L20" s="75"/>
       <c r="M20" s="75"/>
-      <c r="N20" s="75" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21">
-        <f>SUM(G2:G20)</f>
-        <v>140</v>
-      </c>
-      <c r="O21">
-        <f>SUM(O2:O20)</f>
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22">
-        <v>150</v>
-      </c>
+      <c r="N20" s="75"/>
     </row>
   </sheetData>
   <sortState ref="A2:O20">

--- a/doc/project/fll schedule.xlsx
+++ b/doc/project/fll schedule.xlsx
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1136,29 +1136,29 @@
     <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="B3:N19" firstHeaderRow="1" firstDataRow="3" firstDataCol="5"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2403,20 +2403,20 @@
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="87" t="s">
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="87" t="s">
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="87" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2454,8 +2454,8 @@
       <c r="L5" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="92"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="88"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="89" t="s">
@@ -2464,11 +2464,11 @@
       <c r="C6" s="36">
         <v>5</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5">
         <v>40</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
-      <c r="C7" s="87">
+      <c r="C7" s="94">
         <v>12</v>
       </c>
       <c r="D7" s="95">
@@ -2519,12 +2519,12 @@
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="90"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="87" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="88"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5">
         <v>10</v>
@@ -2546,10 +2546,10 @@
       <c r="B9" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5">
         <v>50</v>
@@ -2571,7 +2571,7 @@
       <c r="B10" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="94">
         <v>1</v>
       </c>
       <c r="D10" s="95">
@@ -2602,12 +2602,12 @@
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="90"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="87" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="88"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="5">
         <v>25</v>
       </c>
@@ -2629,10 +2629,10 @@
       <c r="B12" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="5">
         <v>25</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="B13" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="94">
         <v>14</v>
       </c>
       <c r="D13" s="95">
@@ -2685,12 +2685,12 @@
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="90"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="87" t="s">
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="88"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="5">
         <v>10</v>
       </c>
@@ -2712,10 +2712,10 @@
       <c r="B15" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="5">
         <v>10</v>
       </c>
@@ -2737,10 +2737,10 @@
       <c r="B16" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="94" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="36" t="s">
@@ -2764,12 +2764,12 @@
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="87" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="88"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5">
@@ -2787,10 +2787,10 @@
       <c r="B18" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5">
@@ -2805,13 +2805,13 @@
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="7">
         <v>35</v>
       </c>
@@ -3389,6 +3389,16 @@
     <sortCondition ref="A58"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:F18"/>
@@ -3405,16 +3415,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.2" right="0.17" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -3428,7 +3428,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3499,7 +3499,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="63">
-        <v>40782</v>
+        <v>40789</v>
       </c>
       <c r="C9" s="60" t="s">
         <v>45</v>
@@ -3523,7 +3523,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="64">
-        <v>40789</v>
+        <v>40796</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>52</v>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B11" s="64">
         <f t="shared" ref="B11:B21" si="0">B10+7</f>
-        <v>40796</v>
+        <v>40803</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>52</v>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B12" s="64">
         <f t="shared" si="0"/>
-        <v>40803</v>
+        <v>40810</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>54</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="B13" s="81">
         <f t="shared" si="0"/>
-        <v>40810</v>
+        <v>40817</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>52</v>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B14" s="81">
         <f t="shared" si="0"/>
-        <v>40817</v>
+        <v>40824</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>58</v>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="B15" s="81">
         <f t="shared" si="0"/>
-        <v>40824</v>
+        <v>40831</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>52</v>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B16" s="55">
         <f t="shared" si="0"/>
-        <v>40831</v>
+        <v>40838</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="26" t="s">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B17" s="55">
         <f t="shared" si="0"/>
-        <v>40838</v>
+        <v>40845</v>
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="26" t="s">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="B18" s="57">
         <f t="shared" si="0"/>
-        <v>40845</v>
+        <v>40852</v>
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="26"/>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="B19" s="57">
         <f t="shared" si="0"/>
-        <v>40852</v>
+        <v>40859</v>
       </c>
       <c r="C19" s="58" t="s">
         <v>39</v>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B20" s="47">
         <f t="shared" si="0"/>
-        <v>40859</v>
+        <v>40866</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>40</v>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="B21" s="49">
         <f t="shared" si="0"/>
-        <v>40866</v>
+        <v>40873</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>40</v>
